--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>175</v>
+        <v>175.5038511461806</v>
       </c>
       <c r="C2">
-        <v>245</v>
+        <v>246.099340738569</v>
       </c>
       <c r="D2">
-        <v>285</v>
+        <v>283.4982903894888</v>
       </c>
       <c r="E2">
-        <v>306</v>
+        <v>306.3472503517436</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>184</v>
+        <v>188.077694752631</v>
       </c>
       <c r="C3">
-        <v>262</v>
+        <v>267.5086431107969</v>
       </c>
       <c r="D3">
-        <v>313</v>
+        <v>312.677283613454</v>
       </c>
       <c r="E3">
-        <v>346</v>
+        <v>346.7295360882136</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>114</v>
+        <v>112.4248170957789</v>
       </c>
       <c r="C4">
-        <v>164</v>
+        <v>166.9294644886803</v>
       </c>
       <c r="D4">
-        <v>221</v>
+        <v>218.1011528086006</v>
       </c>
       <c r="E4">
-        <v>262</v>
+        <v>257.7098228245226</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>58</v>
+        <v>58.71294989186963</v>
       </c>
       <c r="C5">
-        <v>68</v>
+        <v>69.77250912507837</v>
       </c>
       <c r="D5">
-        <v>69</v>
+        <v>68.37877842506221</v>
       </c>
       <c r="E5">
-        <v>65</v>
+        <v>64.47725878194382</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>40</v>
+        <v>41.8105744583499</v>
       </c>
       <c r="C6">
-        <v>44</v>
+        <v>44.24276505268583</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>40.57225876513246</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>33.93938830210805</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>4.929144550771079</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5.763203358252913</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>6.023653289621835</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>5.559129768194828</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>161</v>
+        <v>159.2734554290184</v>
       </c>
       <c r="C8">
-        <v>229</v>
+        <v>232.3592039582677</v>
       </c>
       <c r="D8">
-        <v>252</v>
+        <v>250.02917500901</v>
       </c>
       <c r="E8">
-        <v>254</v>
+        <v>253.942977826177</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>118</v>
+        <v>116.869797503889</v>
       </c>
       <c r="C9">
-        <v>135</v>
+        <v>135.7545564028199</v>
       </c>
       <c r="D9">
-        <v>116</v>
+        <v>116.2066623531116</v>
       </c>
       <c r="E9">
-        <v>98</v>
+        <v>98.01103415991363</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>37.13227483634517</v>
       </c>
       <c r="C10">
-        <v>62</v>
+        <v>60.66173511600021</v>
       </c>
       <c r="D10">
-        <v>89</v>
+        <v>88.00652696885979</v>
       </c>
       <c r="E10">
-        <v>111</v>
+        <v>109.6781906732005</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>5.993161529336554</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>9.173977692284392</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>13.53124367337835</v>
       </c>
       <c r="E11">
-        <v>19</v>
+        <v>18.60696974524193</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>3.590279878239165</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>7.006436624380287</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>15.66120373963864</v>
       </c>
       <c r="E12">
-        <v>24</v>
+        <v>23.97667024404713</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>15.92651745250431</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>26.22543069112396</v>
       </c>
       <c r="D13">
-        <v>42</v>
+        <v>41.40487310090964</v>
       </c>
       <c r="E13">
-        <v>56</v>
+        <v>54.65597690983485</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV.xlsx
@@ -388,16 +388,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>175.5038511461806</v>
+        <v>195.6369514302971</v>
       </c>
       <c r="C2">
-        <v>246.099340738569</v>
+        <v>274.5212523286614</v>
       </c>
       <c r="D2">
-        <v>283.4982903894888</v>
+        <v>310.9164639157244</v>
       </c>
       <c r="E2">
-        <v>306.3472503517436</v>
+        <v>331.6980579585959</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -405,16 +405,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>188.077694752631</v>
+        <v>212.3020318638763</v>
       </c>
       <c r="C3">
-        <v>267.5086431107969</v>
+        <v>301.5199409104664</v>
       </c>
       <c r="D3">
-        <v>312.677283613454</v>
+        <v>345.0360427527871</v>
       </c>
       <c r="E3">
-        <v>346.7295360882136</v>
+        <v>376.8132310762155</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -422,16 +422,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>112.4248170957789</v>
+        <v>123.7288461065254</v>
       </c>
       <c r="C4">
-        <v>166.9294644886803</v>
+        <v>184.5666901096577</v>
       </c>
       <c r="D4">
-        <v>218.1011528086006</v>
+        <v>238.3325959221063</v>
       </c>
       <c r="E4">
-        <v>257.7098228245226</v>
+        <v>278.5819762149916</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>58.71294989186963</v>
+        <v>61.40334605318127</v>
       </c>
       <c r="C5">
-        <v>69.77250912507837</v>
+        <v>72.80949010845977</v>
       </c>
       <c r="D5">
-        <v>68.37877842506221</v>
+        <v>70.94443891571204</v>
       </c>
       <c r="E5">
-        <v>64.47725878194382</v>
+        <v>66.50496848381502</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -456,16 +456,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>41.8105744583499</v>
+        <v>44.04257576097817</v>
       </c>
       <c r="C6">
-        <v>44.24276505268583</v>
+        <v>46.77444963526305</v>
       </c>
       <c r="D6">
-        <v>40.57225876513246</v>
+        <v>42.76563506891137</v>
       </c>
       <c r="E6">
-        <v>33.93938830210805</v>
+        <v>35.66040263999618</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -473,16 +473,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.929144550771079</v>
+        <v>5.159099170148625</v>
       </c>
       <c r="C7">
-        <v>5.763203358252913</v>
+        <v>6.020632359621939</v>
       </c>
       <c r="D7">
-        <v>6.023653289621835</v>
+        <v>6.259680405911465</v>
       </c>
       <c r="E7">
-        <v>5.559129768194828</v>
+        <v>5.742853052019696</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -490,16 +490,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>159.2734554290184</v>
+        <v>164.6838116579072</v>
       </c>
       <c r="C8">
-        <v>232.3592039582677</v>
+        <v>239.2049769897744</v>
       </c>
       <c r="D8">
-        <v>250.02917500901</v>
+        <v>255.8256801261424</v>
       </c>
       <c r="E8">
-        <v>253.942977826177</v>
+        <v>258.7641707967055</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -507,16 +507,16 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>116.869797503889</v>
+        <v>122.6010930740759</v>
       </c>
       <c r="C9">
-        <v>135.7545564028199</v>
+        <v>142.4294578933071</v>
       </c>
       <c r="D9">
-        <v>116.2066623531116</v>
+        <v>121.1886443030973</v>
       </c>
       <c r="E9">
-        <v>98.01103415991363</v>
+        <v>101.5825505989881</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -524,16 +524,16 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>37.13227483634517</v>
+        <v>42.29312015485393</v>
       </c>
       <c r="C10">
-        <v>60.66173511600021</v>
+        <v>68.28392278590431</v>
       </c>
       <c r="D10">
-        <v>88.00652696885979</v>
+        <v>96.32679321237634</v>
       </c>
       <c r="E10">
-        <v>109.6781906732005</v>
+        <v>117.9515045051195</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -541,16 +541,16 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>5.993161529336554</v>
+        <v>6.837861144587681</v>
       </c>
       <c r="C11">
-        <v>9.173977692284392</v>
+        <v>10.34375488317571</v>
       </c>
       <c r="D11">
-        <v>13.53124367337835</v>
+        <v>14.82492533592836</v>
       </c>
       <c r="E11">
-        <v>18.60696974524193</v>
+        <v>20.02365319544392</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -558,16 +558,16 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>3.590279878239165</v>
+        <v>4.116260849524891</v>
       </c>
       <c r="C12">
-        <v>7.006436624380287</v>
+        <v>7.939078693490086</v>
       </c>
       <c r="D12">
-        <v>15.66120373963864</v>
+        <v>17.21152648281952</v>
       </c>
       <c r="E12">
-        <v>23.97667024404713</v>
+        <v>25.85951846136574</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -575,16 +575,16 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>15.92651745250431</v>
+        <v>18.19500273404358</v>
       </c>
       <c r="C13">
-        <v>26.22543069112396</v>
+        <v>29.58635330221794</v>
       </c>
       <c r="D13">
-        <v>41.40487310090964</v>
+        <v>45.36757355848336</v>
       </c>
       <c r="E13">
-        <v>54.65597690983485</v>
+        <v>58.81711301674312</v>
       </c>
     </row>
   </sheetData>

--- a/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV.xlsx
+++ b/tests/vlaanderen/reference/resultaten/werk/concurrentie/arbeidsplaatsen/restdag/Ontpl_concproduct_OV.xlsx
@@ -431,7 +431,7 @@
         <v>238.3325959221063</v>
       </c>
       <c r="E4">
-        <v>278.5819762149916</v>
+        <v>278.5819762149917</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -533,7 +533,7 @@
         <v>96.32679321237634</v>
       </c>
       <c r="E10">
-        <v>117.9515045051195</v>
+        <v>117.9515045051196</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -550,7 +550,7 @@
         <v>14.82492533592836</v>
       </c>
       <c r="E11">
-        <v>20.02365319544392</v>
+        <v>20.02365319544393</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -567,7 +567,7 @@
         <v>17.21152648281952</v>
       </c>
       <c r="E12">
-        <v>25.85951846136574</v>
+        <v>25.85951846136575</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -584,7 +584,7 @@
         <v>45.36757355848336</v>
       </c>
       <c r="E13">
-        <v>58.81711301674312</v>
+        <v>58.81711301674314</v>
       </c>
     </row>
   </sheetData>
